--- a/trunk/Board/_01_Documents_Projet/Power_supplies_calculus_21V.xlsx
+++ b/trunk/Board/_01_Documents_Projet/Power_supplies_calculus_21V.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitors" sheetId="1" r:id="rId1"/>
@@ -665,6 +665,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -680,7 +691,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -699,16 +709,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -1200,83 +1200,83 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1284,72 +1284,72 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -1357,51 +1357,51 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
@@ -1415,7 +1415,7 @@
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="11">
         <f>1/(2*3.1415*'Feedback resistors'!C13*C39)</f>
         <v>9.8023939203052387E-11</v>
       </c>
@@ -1443,123 +1443,123 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1585,78 +1585,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1742,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1836,53 +1836,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="3"/>
@@ -1897,8 +1897,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3">
@@ -1907,25 +1907,25 @@
       <c r="D6" s="3">
         <v>21</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="16">
         <v>22</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="29">
+      <c r="H6" s="18">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="18">
         <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="2">
         <f>H6/(1-'Duty Cycle'!C7)</f>
         <v>0.13439999999999999</v>
@@ -1939,12 +1939,12 @@
       <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19">
         <f>D6/H6</f>
         <v>656.25</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="19">
         <f>E6/I6</f>
         <v>550</v>
       </c>
